--- a/data/trans_dic/P55_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,13 +524,19 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
-recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses</t>
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -532,18 +546,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -555,27 +575,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -588,6 +638,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -602,32 +658,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>21,48%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>21,08%</t>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
         </is>
       </c>
     </row>
@@ -640,32 +726,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>7,39; 20,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 29,74</t>
+          <t>5,03; 18,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>14,17; 30,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 29,78</t>
+          <t>4,16; 16,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>6,72; 16,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 27,08</t>
+          <t>5,79; 19,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14,76; 30,21</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7,47; 19,97</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8,47; 16,48</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 15,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 27,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 15,52</t>
         </is>
       </c>
     </row>
@@ -682,32 +798,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>17,47%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>17,88%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>16,72%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>17,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -720,32 +866,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>15,44; 37,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 25,97</t>
+          <t>7,49; 41,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>11,92; 25,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 23,44</t>
+          <t>7,34; 22,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>11,99; 22,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,18; 22,74</t>
+          <t>8,1; 19,4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11,78; 24,1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14,6; 27,68</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 29,43</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9,67; 28,77</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,39; 22,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 21,82</t>
         </is>
       </c>
     </row>
@@ -762,32 +938,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>20,4%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,12%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,2%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,89%</t>
         </is>
       </c>
     </row>
@@ -800,32 +1006,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>5,77; 12,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 26,38</t>
+          <t>6,22; 15,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>15,17; 27,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,27; 26,57</t>
+          <t>12,8; 25,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>6,46; 12,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,87; 25,04</t>
+          <t>7,02; 14,54</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 26,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20,16; 31,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 11,44</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 13,78</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16,89; 25,2</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 27,2</t>
         </is>
       </c>
     </row>
@@ -842,32 +1078,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11,26%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>25,9%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>24,76%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20,69%</t>
         </is>
       </c>
     </row>
@@ -880,32 +1146,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>8,7; 18,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,82; 31,23</t>
+          <t>7,24; 21,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>17,48; 31,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 32,18</t>
+          <t>14,57; 25,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>7,79; 14,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 29,79</t>
+          <t>9,52; 17,2</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20,97; 32,13</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 28,31</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9,37; 15,94</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 17,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 29,47</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 24,67</t>
         </is>
       </c>
     </row>
@@ -922,32 +1218,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>16,82%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,21%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,25%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>17,56%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -960,32 +1286,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>6,31; 13,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,77; 24,0</t>
+          <t>7,55; 16,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>11,51; 23,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,58; 23,53</t>
+          <t>10,72; 21,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>7,5; 15,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 21,75</t>
+          <t>5,34; 13,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 23,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,5; 26,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 13,46</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 13,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 22,06</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 22,07</t>
         </is>
       </c>
     </row>
@@ -1002,32 +1358,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>5,61%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>10,82%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>8,61%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -1040,32 +1426,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>1,84; 9,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,04</t>
+          <t>1,18; 9,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>2,72; 10,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,5; 17,21</t>
+          <t>3,48; 12,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,69; 15,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,7; 13,0</t>
+          <t>5,37; 20,82</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 17,58</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 16,84</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 11,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 14,08</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5,45; 12,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 12,84</t>
         </is>
       </c>
     </row>
@@ -1082,32 +1498,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>17,83%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>18,65%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>18,24%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
         </is>
       </c>
     </row>
@@ -1120,49 +1566,1713 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,85; 15,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,37; 20,86</t>
+          <t>8,06; 15,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>15,2; 20,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,12</t>
+          <t>12,09; 16,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,14; 12,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,53; 20,12</t>
+          <t>9,16; 13,85</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 20,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 21,1</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 13,18</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 13,33</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 20,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14,65; 18,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>61877</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>42410</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8151</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>52932</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>47938</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7414</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>114809</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>90349</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15565</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8091</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35740; 100030</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21669; 78103</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5574; 11881</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1737; 6773</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32723; 82174</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26681; 87936</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5093; 10425</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2609; 6975</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>82196; 159952</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57171; 137880</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11404; 20462</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5138; 11893</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>142918</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>101332</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8841</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5785</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>86643</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65233</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7669</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8922</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>229561</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>166564</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16511</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14707</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>90482; 221490</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43412; 241359</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5893; 12849</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3369; 10418</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>61220; 116230</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>40922; 97983</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5404; 11052</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6453; 12233</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>168596; 322814</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>104886; 312170</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12763; 21450</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11088; 19661</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>57681</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>67273</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12064</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11163</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>63898</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>73122</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11073</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14014</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>121579</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>140394</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>23137</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>25177</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38198; 85589</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>41408; 102163</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8972; 16004</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7701; 15445</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45731; 86637</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>49907; 103364</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8616; 14074</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11057; 17536</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>93452; 156692</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>107653; 189612</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18845; 28114</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20861; 31284</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>79702</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>73288</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13738</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11069</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>72908</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>83501</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13425</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11684</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>152611</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>156789</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27163</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22753</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>54966; 118914</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47307; 143116</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10118; 18332</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8256; 14701</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>50425; 95095</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>62113; 112222</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10867; 16654</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9138; 15091</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>119802; 203905</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>122462; 222549</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>22149; 32341</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18858; 27132</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>46075</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>56587</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7275</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6974</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>56391</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46107</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8844</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9566</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>102466</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>102694</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16119</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16540</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>31041; 64395</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>37362; 82336</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4979; 10006</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4757; 9637</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38063; 80633</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27152; 70620</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6606; 11599</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7263; 12420</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>77386; 134503</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>75439; 136761</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12812; 20251</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13294; 20140</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22381</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>20520</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3156</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>50006</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>78860</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6826</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6668</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>72387</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>99380</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9824</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9749; 48894</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6651; 54335</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1259; 4918</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1561; 5465</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>25356; 106213</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>38855; 150644</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3872; 11097</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4042; 10640</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>45619; 134260</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>57155; 181049</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5967; 13765</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6547; 13883</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>410634</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>361409</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>52667</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>41774</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>382779</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>394760</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>55252</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>55317</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>793413</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>756170</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>107918</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>97092</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>333494; 528901</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>272883; 531003</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>44898; 60802</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>35500; 49476</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>324197; 451579</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>326156; 493095</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>48035; 61912</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>48356; 62743</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>688558; 913418</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>640204; 926520</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>97641; 118488</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>86603; 107373</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>